--- a/docs/StructureDefinition-DebtPortalPatient.xlsx
+++ b/docs/StructureDefinition-DebtPortalPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalPatient.xlsx
+++ b/docs/StructureDefinition-DebtPortalPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalPatient.xlsx
+++ b/docs/StructureDefinition-DebtPortalPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalPatient.xlsx
+++ b/docs/StructureDefinition-DebtPortalPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalPatient.xlsx
+++ b/docs/StructureDefinition-DebtPortalPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalPatient.xlsx
+++ b/docs/StructureDefinition-DebtPortalPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -662,7 +662,11 @@
   </si>
   <si>
     <t>IB.AccountsReceivable.ARDebtorIEN
-Dim.ARDebtor.InstitutionIEN,Dim.ARDebtor.InsuranceCompanyIEN,Dim.ARDebtor.PatientIEN,Dim.ARDebtor.StaffIEN,Dim.ARDebtor.VendorIEN</t>
+Dim.ARDebtor.InstitutionIEN
+Dim.ARDebtor.InsuranceCompanyIEN
+Dim.ARDebtor.PatientIEN
+Dim.ARDebtor.StaffIEN
+Dim.ARDebtor.VendorIEN</t>
   </si>
   <si>
     <t>./formatted</t>
@@ -2146,7 +2150,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="104.078125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="112.7890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="37.671875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="134.453125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="34.98828125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-DebtPortalPatient.xlsx
+++ b/docs/StructureDefinition-DebtPortalPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
